--- a/Datascraping/output_excel_files_new/Punjab Agricultural University, Ludhiana_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Punjab Agricultural University, Ludhiana_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,37 +563,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [6 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>127</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -606,42 +606,128 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>PG [2 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PG-Integrated</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Outside Country@@ -649,7 +735,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Economically Backward@@ -657,7 +743,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -666,7 +752,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -677,7 +763,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -687,7 +773,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -697,7 +783,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -707,180 +793,315 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>773</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>1044</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1817</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1709</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>519</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UG [6 Year+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>347</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>797</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PG-Integrated</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -888,13 +1109,13 @@
 time</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -902,223 +1123,223 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2016-17</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>536</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>517</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>310</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>320000(Three Lakh Twenty Thousand)</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>497</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>448</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>430</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>260000(Two Lakh Sixty Thousand)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>440</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>351</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>350000(Three Lakh Fifty Thousand)</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>No. of students graduating in minimum stipulated time</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1126,176 +1347,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>469</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>320000(Three Lakh-Twenty Thousand)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>260000(Two Lakh-Sixty Thousand)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>350000(Three Lakh-Fifty Thousand)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1303,18 +1361,47 @@
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>320000(Three Lakh+Twenty Thousand)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1324,20 +1411,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>260000(Two Lakh+Sixty Thousand)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1347,20 +1459,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>350000(Three Lakh+Fifty Thousand)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1370,16 +1507,55 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No. of first year+students intake in the+year</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No. of first year+students admitted in+the year</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1387,15 +1563,19 @@
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1403,10 +1583,27 @@
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>320000(Three Lakh+Twenty Thousand)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1416,28 +1613,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>260000(Two Lakh+Sixty Thousand)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1447,28 +1661,45 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>350000(Three Lakh+Fifty Thousand)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1478,28 +1709,55 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1507,26 +1765,46 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2014-15</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1536,16 +1814,44 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1555,30 +1861,44 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4811108 (Forty Lakh Eleven Thousand One Hundred Eight)</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5113121 (Fifty One Lakh Thirteen Thousand One Hundred-Twenty One)</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5509739 (Fifty Five Lakh Nine Thousand Seven Hundred Thirty-Nine)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0(Zero)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1588,27 +1908,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>44439380 (Four Crore Forty Four Lakh Thirty Nine Thousand-Three Hundred Eighty)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>151473746 (Fifteen Crore Fourteen Lakh Senenty Three-Thousand Seven Hundred Forty Six)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>103788967 (Ten Crore Thirty Seven Lakh Eighty Eight-Thousand Nine Hundred Sixty Seven)</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1620,26 +1925,14 @@
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Engineering Workshops</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0 (Zero)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0 (Zero)</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1653,27 +1946,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24200916 (Two Crore Forty Two Lakh Nine Hundred Sixteen)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>26084415 (Two Crore Sixty Lakh Eighty Four Thousand Four-Hundred Fifteen)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>24147931 (Two Crore Forty One Lakh Seventy Four Thousand-Nine Hundred Thirty One)</t>
-        </is>
-      </c>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1687,24 +1969,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1716,22 +1990,14 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1743,14 +2009,22 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1764,25 +2038,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4718723938 (Four Hundred Seventy One Crore Eighty Seven-Lakh Twenty Three Thousand Nine Hundred Thirty Eight)</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4590633858 (Four Hundred Fifty Nine Crore Six Lakh Thirty-Three Thousand Eight Hundred Fifty Eight)</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4421404167 (Four Hundred Forty Two Crore Fourteen Lakh-Four Thousand One Hundred Sixty Seven)</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1798,27 +2069,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>61466476 (Six Crore Fourteen Lakh Sixty Six Thousand Four-Hundred Seventy Six)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>85339445 (Eight Crore Fifty Three Lakh Thirty Nine Thousand-Four Hundred Forty Five)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>103615591 (Ten Crore Thirty Six Lakh Fifteen Thousand Five-Hundred Ninety One)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1834,25 +2100,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>36035116 (Three Crore Sixty Lakh Thirty Five Thousand One-Hundred Sixteen)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>26105899 (Two Crore Sixty One Lakh Five Thousand Eight-Hundred Ninety Nine)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>32499939 (Three Crore Twenty Four Lakh Ninety Nine-Thousand Nine Hundred Thirty Nine)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1866,24 +2129,20 @@
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1899,24 +2158,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>571</t>
-        </is>
-      </c>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1930,22 +2177,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Library</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>4811108 (Forty Lakh Eleven Thousand One Hundred Eight)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>5113121 (Fifty One Lakh Thirteen Thousand One Hundred+Twenty One)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>5509739 (Fifty Five Lakh Nine Thousand Seven Hundred Thirty+Nine)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1961,22 +2210,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>New Equipment for Laboratories</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1335712951</t>
+          <t>44439380 (Four Crore Forty Four Lakh Thirty Nine Thousand+Three Hundred Eighty)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1244615279</t>
+          <t>151473746 (Fifteen Crore Fourteen Lakh Senenty Three+Thousand Seven Hundred Forty Six)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1297890297</t>
+          <t>103788967 (Ten Crore Thirty Seven Lakh Eighty Eight+Thousand Nine Hundred Sixty Seven)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1992,25 +2244,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Engineering Workshops</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>One Hundred Thirty Three Crore Fifty Seven Lakh Twelve-Thousand Nine Hundred Fifty One</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>One Hundred Twenty Four Crore Forty Six Lakh Fifteen-Thousand Two Hundred Seventy Nine</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>One Hundred Twenty Nine Crore Seventy Eight Lakh Ninety-Thousand Two Hundred Ninety Seven</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2026,22 +2275,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2057,22 +2306,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24200916 (Two Crore Forty Two Lakh Nine Hundred Sixteen)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26084415 (Two Crore Sixty Lakh Eighty Four Thousand Four+Hundred Fifteen)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24147931 (Two Crore Forty One Lakh Seventy Four Thousand+Nine Hundred Thirty One)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2088,22 +2340,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2117,24 +2369,20 @@
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>52877</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>336139</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1536360</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2150,24 +2398,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Fifty Two Thousand Eight Hundred Seventy Seven</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Three Lakh Thirty Six Thousand One Hundred Thirty Nine</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fifteen Lakh Thirty Six Thousand Three Hundred Sixty</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2181,16 +2417,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>4718723938 (Four Hundred Seventy One Crore Eighty Seven+Lakh Twenty Three Thousand Nine Hundred Thirty Eight)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4590633858 (Four Hundred Fifty Nine Crore Six Lakh Thirty+Three Thousand Eight Hundred Fifty Eight)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4421404167 (Four Hundred Forty Two Crore Fourteen Lakh+Four Thousand One Hundred Sixty Seven)</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2204,17 +2451,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>61466476 (Six Crore Fourteen Lakh Sixty Six Thousand Four+Hundred Seventy Six)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>85339445 (Eight Crore Fifty Three Lakh Thirty Nine Thousand+Four Hundred Forty Five)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>103615591 (Ten Crore Thirty Six Lakh Fifteen Thousand Five+Hundred Ninety One)</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2228,16 +2487,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>36035116 (Three Crore Sixty Lakh Thirty Five Thousand One+Hundred Sixteen)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>26105899 (Two Crore Sixty One Lakh Five Thousand Eight+Hundred Ninety Nine)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>32499939 (Three Crore Twenty Four Lakh Ninety Nine+Thousand Nine Hundred Thirty Nine)</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2251,16 +2521,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2271,6 +2549,561 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total no. of Sponsored Projects</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1335712951</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1244615279</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1297890297</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>One Hundred Thirty Three Crore Fifty Seven Lakh Twelve+Thousand Nine Hundred Fifty One</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>One Hundred Twenty Four Crore Forty Six Lakh Fifteen+Thousand Two Hundred Seventy Nine</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>One Hundred Twenty Nine Crore Seventy Eight Lakh Ninety+Thousand Two Hundred Ninety Seven</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Total no. of Consultancy Projects</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Total no. of Client Organizations</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>52877</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>336139</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1536360</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fifty Two Thousand Eight Hundred Seventy Seven</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Three Lakh Thirty Six Thousand One Hundred Thirty Nine</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fifteen Lakh Thirty Six Thousand Three Hundred Sixty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Total no. of Participants</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings in Words</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1. Does your institute have a valid NAAC Accreditation?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
